--- a/thresholds/IGCSE/information-and-communication-technology/information-and-communication-technology-thresholds.xlsx
+++ b/thresholds/IGCSE/information-and-communication-technology/information-and-communication-technology-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,77 +985,77 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>EX 02,03,11</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="D14" t="n">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="F14" t="n">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="G14" t="n">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I14" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>EY 02,03,12</t>
+          <t>EX 02,03,11</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>280</v>
       </c>
       <c r="C15" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D15" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E15" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F15" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G15" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H15" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I15" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1067,36 +1067,36 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>EZ 02,03,13</t>
+          <t>EY 02,03,12</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>280</v>
       </c>
       <c r="C16" t="n">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D16" t="n">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E16" t="n">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F16" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G16" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H16" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I16" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1108,61 +1108,61 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>EX 02,03,11</t>
+          <t>EZ 02,03,13</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C17" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D17" t="n">
         <v>182</v>
       </c>
       <c r="E17" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F17" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G17" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H17" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I17" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>EY 02,03,12</t>
+          <t>EX 02,03,11</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>300</v>
       </c>
       <c r="C18" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D18" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E18" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F18" t="n">
         <v>112</v>
@@ -1190,36 +1190,36 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>EZ 02,03,13</t>
+          <t>EY 02,03,12</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>300</v>
       </c>
       <c r="C19" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D19" t="n">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E19" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F19" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G19" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1231,82 +1231,82 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AY 12,21,31</t>
+          <t>EZ 02,03,13</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C20" t="n">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="D20" t="n">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="E20" t="n">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="F20" t="n">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="G20" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H20" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I20" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>March 2022</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="C21" t="n">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="D21" t="n">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="F21" t="n">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="G21" t="n">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H21" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I21" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
@@ -1317,63 +1317,63 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>197</v>
       </c>
       <c r="D22" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E22" t="n">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F22" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G22" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H22" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I22" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,21,31</t>
+          <t>AX 11,21,31</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>280</v>
       </c>
       <c r="C23" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D23" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E23" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F23" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G23" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" t="n">
         <v>70</v>
@@ -1395,20 +1395,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BY 12,22,31</t>
+          <t>AY 12,21,31</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>280</v>
       </c>
       <c r="C24" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D24" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E24" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F24" t="n">
         <v>108</v>
@@ -1420,11 +1420,11 @@
         <v>70</v>
       </c>
       <c r="I24" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1436,20 +1436,20 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,22,31</t>
+          <t>AZ 13,21,31</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>280</v>
       </c>
       <c r="C25" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D25" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E25" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F25" t="n">
         <v>107</v>
@@ -1461,11 +1461,11 @@
         <v>70</v>
       </c>
       <c r="I25" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1477,36 +1477,36 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>CY 12,21,32</t>
+          <t>BY 12,22,31</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>280</v>
       </c>
       <c r="C26" t="n">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D26" t="n">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E26" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F26" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G26" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I26" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1518,36 +1518,36 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>CZ 13,21,32</t>
+          <t>BZ 13,22,31</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>280</v>
       </c>
       <c r="C27" t="n">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="D27" t="n">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E27" t="n">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F27" t="n">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G27" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I27" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1559,20 +1559,20 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>DX 11,22,32</t>
+          <t>CY 12,21,32</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>280</v>
       </c>
       <c r="C28" t="n">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D28" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E28" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F28" t="n">
         <v>118</v>
@@ -1584,11 +1584,11 @@
         <v>76</v>
       </c>
       <c r="I28" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1600,36 +1600,36 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>DY 12,22,32</t>
+          <t>CZ 13,21,32</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>280</v>
       </c>
       <c r="C29" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D29" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E29" t="n">
         <v>144</v>
       </c>
       <c r="F29" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G29" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29" t="n">
         <v>76</v>
       </c>
       <c r="I29" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1641,26 +1641,26 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>DZ 13,22,32</t>
+          <t>DX 11,22,32</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>280</v>
       </c>
       <c r="C30" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D30" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E30" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F30" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G30" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H30" t="n">
         <v>76</v>
@@ -1682,159 +1682,159 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31</t>
+          <t>DY 12,22,32</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>280</v>
       </c>
       <c r="C31" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D31" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E31" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F31" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G31" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H31" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I31" t="n">
         <v>55</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AY 12,21,31</t>
+          <t>DZ 13,22,32</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>280</v>
       </c>
       <c r="C32" t="n">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D32" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E32" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F32" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G32" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H32" t="n">
         <v>76</v>
       </c>
       <c r="I32" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,21,31</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="C33" t="n">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="D33" t="n">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="E33" t="n">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="F33" t="n">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="G33" t="n">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="H33" t="n">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="I33" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>BY 12,22,31</t>
+          <t>AX 11,21,31</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>280</v>
       </c>
       <c r="C34" t="n">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D34" t="n">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E34" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F34" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G34" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H34" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I34" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -1846,36 +1846,36 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,22,31</t>
+          <t>AY 12,21,31</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>280</v>
       </c>
       <c r="C35" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D35" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E35" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" t="n">
         <v>111</v>
       </c>
       <c r="G35" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H35" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I35" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -1887,36 +1887,36 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>CY 12,21,32</t>
+          <t>AZ 13,21,31</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>280</v>
       </c>
       <c r="C36" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D36" t="n">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E36" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F36" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G36" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H36" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -1928,36 +1928,36 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>CZ 13,21,32</t>
+          <t>BY 12,22,31</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>280</v>
       </c>
       <c r="C37" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D37" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E37" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F37" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G37" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H37" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I37" t="n">
         <v>58</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -1969,36 +1969,36 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>DX 11,22,32</t>
+          <t>BZ 13,22,31</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>280</v>
       </c>
       <c r="C38" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D38" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E38" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F38" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G38" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H38" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I38" t="n">
         <v>56</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2010,26 +2010,26 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>DY 12,22,32</t>
+          <t>CY 12,21,32</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>280</v>
       </c>
       <c r="C39" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D39" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E39" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F39" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H39" t="n">
         <v>78</v>
@@ -2051,26 +2051,26 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>DZ 13,22,32</t>
+          <t>CZ 13,21,32</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>280</v>
       </c>
       <c r="C40" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D40" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E40" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F40" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G40" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H40" t="n">
         <v>77</v>
@@ -2092,159 +2092,159 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31</t>
+          <t>DX 11,22,32</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>280</v>
       </c>
       <c r="C41" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D41" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E41" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F41" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G41" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H41" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I41" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AY 12,21,31</t>
+          <t>DY 12,22,32</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>280</v>
       </c>
       <c r="C42" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D42" t="n">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E42" t="n">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F42" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G42" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H42" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I42" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,21,31</t>
+          <t>DZ 13,22,32</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>280</v>
       </c>
       <c r="C43" t="n">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D43" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E43" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F43" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G43" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H43" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I43" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>BX 11,22,31</t>
+          <t>AX 11,21,31</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>280</v>
       </c>
       <c r="C44" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D44" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E44" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F44" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G44" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H44" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I44" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2256,32 +2256,32 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>BY 12,22,31</t>
+          <t>AY 12,21,31</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>280</v>
       </c>
       <c r="C45" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D45" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E45" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F45" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G45" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H45" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I45" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2297,36 +2297,36 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,22,31</t>
+          <t>AZ 13,21,31</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>280</v>
       </c>
       <c r="C46" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D46" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E46" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F46" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G46" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H46" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I46" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2338,36 +2338,36 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>CX 11,21,32</t>
+          <t>BX 11,22,31</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>280</v>
       </c>
       <c r="C47" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D47" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E47" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F47" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G47" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H47" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I47" t="n">
         <v>56</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2379,36 +2379,36 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>CY 12,21,32</t>
+          <t>BY 12,22,31</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>280</v>
       </c>
       <c r="C48" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D48" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E48" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F48" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G48" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H48" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I48" t="n">
         <v>57</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2420,36 +2420,36 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>CZ 13,21,32</t>
+          <t>BZ 13,22,31</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>280</v>
       </c>
       <c r="C49" t="n">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D49" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E49" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F49" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G49" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H49" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I49" t="n">
         <v>56</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2461,7 +2461,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>DX 11,22,32</t>
+          <t>CX 11,21,32</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2471,26 +2471,26 @@
         <v>191</v>
       </c>
       <c r="D50" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E50" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F50" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G50" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H50" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I50" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2502,32 +2502,32 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>DY 12,22,32</t>
+          <t>CY 12,21,32</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>280</v>
       </c>
       <c r="C51" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D51" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E51" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F51" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G51" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H51" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I51" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2543,36 +2543,36 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>DZ 13,22,32</t>
+          <t>CZ 13,21,32</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>280</v>
       </c>
       <c r="C52" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D52" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E52" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F52" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G52" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H52" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I52" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2584,61 +2584,61 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>AY 12,21,31</t>
+          <t>DX 11,22,32</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>280</v>
       </c>
       <c r="C53" t="n">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D53" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E53" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F53" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G53" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H53" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I53" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>AY 12,21,31</t>
+          <t>DY 12,22,32</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>280</v>
       </c>
       <c r="C54" t="n">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D54" t="n">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E54" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F54" t="n">
         <v>115</v>
@@ -2659,169 +2659,292 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>AY 12,21,31</t>
+          <t>DZ 13,22,32</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>280</v>
       </c>
       <c r="C55" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D55" t="n">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E55" t="n">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F55" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G55" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H55" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I55" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>EX 02,03,11</t>
+          <t>AY 12,21,31</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>280</v>
       </c>
       <c r="C56" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D56" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E56" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H56" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I56" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>EY 02,03,12</t>
+          <t>AY 12,21,31</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>280</v>
       </c>
       <c r="C57" t="n">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="D57" t="n">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="E57" t="n">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F57" t="n">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G57" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H57" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I57" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
+          <t>AY 12,21,31</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>280</v>
+      </c>
+      <c r="C58" t="n">
+        <v>212</v>
+      </c>
+      <c r="D58" t="n">
+        <v>182</v>
+      </c>
+      <c r="E58" t="n">
+        <v>152</v>
+      </c>
+      <c r="F58" t="n">
+        <v>123</v>
+      </c>
+      <c r="G58" t="n">
+        <v>105</v>
+      </c>
+      <c r="H58" t="n">
+        <v>87</v>
+      </c>
+      <c r="I58" t="n">
+        <v>70</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>March 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>EX 02,03,11</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>280</v>
+      </c>
+      <c r="C59" t="n">
+        <v>199</v>
+      </c>
+      <c r="D59" t="n">
+        <v>166</v>
+      </c>
+      <c r="E59" t="n">
+        <v>133</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100</v>
+      </c>
+      <c r="G59" t="n">
+        <v>83</v>
+      </c>
+      <c r="H59" t="n">
+        <v>67</v>
+      </c>
+      <c r="I59" t="n">
+        <v>52</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>EY 02,03,12</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>280</v>
+      </c>
+      <c r="C60" t="n">
+        <v>196</v>
+      </c>
+      <c r="D60" t="n">
+        <v>162</v>
+      </c>
+      <c r="E60" t="n">
+        <v>128</v>
+      </c>
+      <c r="F60" t="n">
+        <v>94</v>
+      </c>
+      <c r="G60" t="n">
+        <v>78</v>
+      </c>
+      <c r="H60" t="n">
+        <v>63</v>
+      </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
           <t>EZ 02,03,13</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>280</v>
-      </c>
-      <c r="C58" t="n">
+      <c r="B61" t="n">
+        <v>280</v>
+      </c>
+      <c r="C61" t="n">
         <v>196</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D61" t="n">
         <v>162</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E61" t="n">
         <v>128</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F61" t="n">
         <v>94</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G61" t="n">
         <v>78</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H61" t="n">
         <v>63</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I61" t="n">
         <v>48</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
